--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_33.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_42</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1154639175257732</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.04, 11.44)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02.557446', '0:00:06.319079')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3314393939393939</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(100.4, 108.82), (18.0, 26.46)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(96.12, 103.44), (130.84, 135.98)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.3, 29.36), (66.04, 71.56), (22.08, 26.86)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.82, 53.46), (41.96, 51.36), (48.48, 60.84)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.065625</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:17.016000', '0:00:22.841000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1180555555555556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#']]</t>
+          <t>[['G', 'A:7', 'D'], ['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.18, 21.14)]</t>
+          <t>[['F#:maj/G#', 'G#:7', 'C#:maj'], ['C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(49.28, 58.7)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:27.609000', '0:00:32.201000'), ('0:00:06.536000', '0:00:09.774000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:25.300000', '0:00:31.340000'), ('0:00:09.060000', '0:00:10.780000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.173202614379085</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'C'], ['A', 'D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'A'], ['F#', 'B', 'E', 'A']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.465419, 21.740249), (42.394399, 52.715668)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.714036, 44.240385), (29.008095, 35.962471)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.02, 61.58)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(29.22, 63.28)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(53.06, 65.64)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.54, 4.24)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.16, 42.24), (80.42, 84.64), (10.82, 17.08)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.96, 17.7), (123.22, 126.88), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1164473684210526</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'B:min'], ['E', 'A', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['D', 'G', 'E:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.503151, 31.045011), (37.337619, 50.004104)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (45.201874, 53.746817)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.26, 5.44)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.0, 43.66)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(94.78, 114.14)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05584978334135773</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'C:min7']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'G:maj6/5']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.82, 9.13)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(92.236031, 94.720566)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(55.58, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
